--- a/dataDir/models/WarehouseConfig.xlsx
+++ b/dataDir/models/WarehouseConfig.xlsx
@@ -123,7 +123,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,7 +438,7 @@
     <col min="3" max="3" style="2" width="65.14785714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -460,7 +460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -471,7 +471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -482,7 +482,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -493,7 +493,7 @@
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>

--- a/dataDir/models/WarehouseConfig.xlsx
+++ b/dataDir/models/WarehouseConfig.xlsx
@@ -31,7 +31,7 @@
     <t>France</t>
   </si>
   <si>
-    <t xml:space="preserve">France Japan Hungary Spain </t>
+    <t>France Japan Hungary Spain</t>
   </si>
   <si>
     <t>Warehouse Main</t>

--- a/dataDir/models/WarehouseConfig.xlsx
+++ b/dataDir/models/WarehouseConfig.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bed Set Pillow Set Mattress Set Bedding Mattress</t>
+          <t>['Bed Set', 'Pillow Set', 'Mattress Set', 'Bedding', 'Mattress']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bed Set Pillow Set Mattress Set Bedding Mattress</t>
+          <t>['Bed Set', 'Pillow Set', 'Mattress Set', 'Bedding', 'Mattress']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bed Set Pillow Set Mattress Set Bedding Mattress</t>
+          <t>['Bed Set', 'Pillow Set', 'Mattress Set', 'Bedding', 'Mattress']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Bed Set Pillow Set Mattress Set Bedding Mattress</t>
+          <t>['Bed Set', 'Pillow Set', 'Mattress Set', 'Bedding', 'Mattress']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Bed Set Pillow Set Mattress Set Bedding Mattress</t>
+          <t>['Bed Set', 'Pillow Set', 'Mattress Set', 'Bedding', 'Mattress']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
